--- a/Question/Yelp-Alltime.xlsx
+++ b/Question/Yelp-Alltime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A214C33-0388-42C1-B3EC-D9146048B55C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D591EBC7-B38B-4353-B150-4E385FC31B8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5DE44689-42C0-45F9-856A-1609A8CE5BB8}"/>
+    <workbookView xWindow="345" yWindow="345" windowWidth="7500" windowHeight="6000" xr2:uid="{5DE44689-42C0-45F9-856A-1609A8CE5BB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -317,7 +317,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,6 +339,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,14 +382,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -397,11 +407,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="7">
     <dxf>
       <font>
         <b val="0"/>
@@ -450,26 +465,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -578,6 +573,16 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -597,11 +602,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE89C17F-CDED-42D8-89DC-4CE6E8D85CD7}" name="Table1" displayName="Table1" ref="A1:D38" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE89C17F-CDED-42D8-89DC-4CE6E8D85CD7}" name="Table1" displayName="Table1" ref="A1:D38" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D38" xr:uid="{4A270C05-BE87-489A-9695-6788BA0935CC}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C477AEF0-FE12-4978-9DC3-A9D27032F7B1}" name="Number" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{01D60E7F-650B-4E40-A809-B211B1C783D1}" name="Name" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{C477AEF0-FE12-4978-9DC3-A9D27032F7B1}" name="Number" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{01D60E7F-650B-4E40-A809-B211B1C783D1}" name="Name" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{FA895AE3-4D71-4612-9F9B-EE7D2A465511}" name="Difficulties" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{3185EA03-113A-47DC-8182-3BD7608067D3}" name="URL" dataDxfId="0"/>
   </tableColumns>
@@ -908,1800 +913,1800 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7BD6BDD-6E13-4CFA-9B09-61E19E22488E}">
   <dimension ref="A1:E414"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="88.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="82" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="7"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>599</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>564</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>273</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>332</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>355</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>56</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>49</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>692</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>139</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>218</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>347</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>1126</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>528</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>253</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>127</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>1333</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>3</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="7"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="5">
+      <c r="A20" s="3">
         <v>205</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="5">
+      <c r="A21" s="3">
         <v>126</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="7"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="5">
+      <c r="A22" s="3">
         <v>1</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="7"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="5">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="7"/>
+      <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="5">
+      <c r="A24" s="3">
         <v>207</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="7"/>
+      <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="5">
+      <c r="A25" s="3">
         <v>192</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="7"/>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="5">
+      <c r="A26" s="3">
         <v>380</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="7"/>
+      <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="5">
+      <c r="A27" s="3">
         <v>784</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="7"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="5">
+      <c r="A28" s="3">
         <v>39</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="7"/>
+      <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="5">
+      <c r="A29" s="3">
         <v>239</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="7"/>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="5">
+      <c r="A30" s="3">
         <v>206</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="7"/>
+      <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="5">
+      <c r="A31" s="3">
         <v>349</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="7"/>
+      <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="5">
+      <c r="A32" s="3">
         <v>242</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E32" s="7"/>
+      <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="5">
+      <c r="A33" s="3">
         <v>394</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E33" s="7"/>
+      <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="5">
+      <c r="A34" s="3">
         <v>151</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E34" s="7"/>
+      <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="5">
+      <c r="A35" s="3">
         <v>381</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E35" s="7"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="5">
+      <c r="A36" s="3">
         <v>443</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E36" s="7"/>
+      <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="5">
+      <c r="A37" s="3">
         <v>1436</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="7"/>
+      <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="5">
+      <c r="A38" s="3">
         <v>1455</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E38" s="7"/>
+      <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="E39" s="7"/>
+      <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="E40" s="7"/>
+      <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="E41" s="7"/>
+      <c r="E41" s="5"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="E42" s="7"/>
+      <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="E43" s="7"/>
+      <c r="E43" s="5"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="E44" s="7"/>
+      <c r="E44" s="5"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="E45" s="7"/>
+      <c r="E45" s="5"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="E46" s="7"/>
+      <c r="E46" s="5"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="E47" s="7"/>
+      <c r="E47" s="5"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="E48" s="7"/>
+      <c r="E48" s="5"/>
     </row>
     <row r="49" spans="5:5">
-      <c r="E49" s="7"/>
+      <c r="E49" s="5"/>
     </row>
     <row r="50" spans="5:5">
-      <c r="E50" s="7"/>
+      <c r="E50" s="5"/>
     </row>
     <row r="51" spans="5:5">
-      <c r="E51" s="7"/>
+      <c r="E51" s="5"/>
     </row>
     <row r="52" spans="5:5">
-      <c r="E52" s="7"/>
+      <c r="E52" s="5"/>
     </row>
     <row r="53" spans="5:5">
-      <c r="E53" s="7"/>
+      <c r="E53" s="5"/>
     </row>
     <row r="54" spans="5:5">
-      <c r="E54" s="7"/>
+      <c r="E54" s="5"/>
     </row>
     <row r="55" spans="5:5">
-      <c r="E55" s="7"/>
+      <c r="E55" s="5"/>
     </row>
     <row r="56" spans="5:5">
-      <c r="E56" s="7"/>
+      <c r="E56" s="5"/>
     </row>
     <row r="57" spans="5:5">
-      <c r="E57" s="7"/>
+      <c r="E57" s="5"/>
     </row>
     <row r="58" spans="5:5">
-      <c r="E58" s="7"/>
+      <c r="E58" s="5"/>
     </row>
     <row r="59" spans="5:5">
-      <c r="E59" s="7"/>
+      <c r="E59" s="5"/>
     </row>
     <row r="60" spans="5:5">
-      <c r="E60" s="7"/>
+      <c r="E60" s="5"/>
     </row>
     <row r="61" spans="5:5">
-      <c r="E61" s="7"/>
+      <c r="E61" s="5"/>
     </row>
     <row r="62" spans="5:5">
-      <c r="E62" s="7"/>
+      <c r="E62" s="5"/>
     </row>
     <row r="63" spans="5:5">
-      <c r="E63" s="7"/>
+      <c r="E63" s="5"/>
     </row>
     <row r="64" spans="5:5">
-      <c r="E64" s="7"/>
+      <c r="E64" s="5"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="7"/>
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="5"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="7"/>
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="5"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="7"/>
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="5"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="7"/>
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="5"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="7"/>
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="5"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="7"/>
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="5"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="7"/>
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="5"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="7"/>
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="5"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="7"/>
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="5"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="7"/>
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="5"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="7"/>
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="5"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="7"/>
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="5"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="7"/>
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="5"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="7"/>
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="5"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="7"/>
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="5"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="7"/>
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="5"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="7"/>
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="5"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="7"/>
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="5"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="7"/>
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="5"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="7"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="7"/>
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="5"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="E85" s="7"/>
+      <c r="E85" s="5"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="E86" s="7"/>
+      <c r="E86" s="5"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="E87" s="7"/>
+      <c r="E87" s="5"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="E88" s="7"/>
+      <c r="E88" s="5"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="E89" s="7"/>
+      <c r="E89" s="5"/>
     </row>
     <row r="90" spans="1:5">
-      <c r="E90" s="7"/>
+      <c r="E90" s="5"/>
     </row>
     <row r="91" spans="1:5">
-      <c r="E91" s="7"/>
+      <c r="E91" s="5"/>
     </row>
     <row r="92" spans="1:5">
-      <c r="E92" s="7"/>
+      <c r="E92" s="5"/>
     </row>
     <row r="93" spans="1:5">
-      <c r="E93" s="7"/>
+      <c r="E93" s="5"/>
     </row>
     <row r="94" spans="1:5">
-      <c r="E94" s="7"/>
+      <c r="E94" s="5"/>
     </row>
     <row r="95" spans="1:5">
-      <c r="E95" s="7"/>
+      <c r="E95" s="5"/>
     </row>
     <row r="96" spans="1:5">
-      <c r="E96" s="7"/>
+      <c r="E96" s="5"/>
     </row>
     <row r="97" spans="5:5">
-      <c r="E97" s="7"/>
+      <c r="E97" s="5"/>
     </row>
     <row r="98" spans="5:5">
-      <c r="E98" s="7"/>
+      <c r="E98" s="5"/>
     </row>
     <row r="99" spans="5:5">
-      <c r="E99" s="7"/>
+      <c r="E99" s="5"/>
     </row>
     <row r="100" spans="5:5">
-      <c r="E100" s="7"/>
+      <c r="E100" s="5"/>
     </row>
     <row r="101" spans="5:5">
-      <c r="E101" s="7"/>
+      <c r="E101" s="5"/>
     </row>
     <row r="102" spans="5:5">
-      <c r="E102" s="7"/>
+      <c r="E102" s="5"/>
     </row>
     <row r="103" spans="5:5">
-      <c r="E103" s="7"/>
+      <c r="E103" s="5"/>
     </row>
     <row r="104" spans="5:5">
-      <c r="E104" s="7"/>
+      <c r="E104" s="5"/>
     </row>
     <row r="105" spans="5:5">
-      <c r="E105" s="7"/>
+      <c r="E105" s="5"/>
     </row>
     <row r="106" spans="5:5">
-      <c r="E106" s="7"/>
+      <c r="E106" s="5"/>
     </row>
     <row r="107" spans="5:5">
-      <c r="E107" s="7"/>
+      <c r="E107" s="5"/>
     </row>
     <row r="108" spans="5:5">
-      <c r="E108" s="7"/>
+      <c r="E108" s="5"/>
     </row>
     <row r="109" spans="5:5">
-      <c r="E109" s="7"/>
+      <c r="E109" s="5"/>
     </row>
     <row r="110" spans="5:5">
-      <c r="E110" s="7"/>
+      <c r="E110" s="5"/>
     </row>
     <row r="111" spans="5:5">
-      <c r="E111" s="7"/>
+      <c r="E111" s="5"/>
     </row>
     <row r="112" spans="5:5">
-      <c r="E112" s="7"/>
+      <c r="E112" s="5"/>
     </row>
     <row r="113" spans="5:5">
-      <c r="E113" s="7"/>
+      <c r="E113" s="5"/>
     </row>
     <row r="114" spans="5:5">
-      <c r="E114" s="7"/>
+      <c r="E114" s="5"/>
     </row>
     <row r="115" spans="5:5">
-      <c r="E115" s="7"/>
+      <c r="E115" s="5"/>
     </row>
     <row r="116" spans="5:5">
-      <c r="E116" s="7"/>
+      <c r="E116" s="5"/>
     </row>
     <row r="117" spans="5:5">
-      <c r="E117" s="7"/>
+      <c r="E117" s="5"/>
     </row>
     <row r="118" spans="5:5">
-      <c r="E118" s="7"/>
+      <c r="E118" s="5"/>
     </row>
     <row r="119" spans="5:5">
-      <c r="E119" s="7"/>
+      <c r="E119" s="5"/>
     </row>
     <row r="120" spans="5:5">
-      <c r="E120" s="7"/>
+      <c r="E120" s="5"/>
     </row>
     <row r="121" spans="5:5">
-      <c r="E121" s="7"/>
+      <c r="E121" s="5"/>
     </row>
     <row r="122" spans="5:5">
-      <c r="E122" s="7"/>
+      <c r="E122" s="5"/>
     </row>
     <row r="123" spans="5:5">
-      <c r="E123" s="7"/>
+      <c r="E123" s="5"/>
     </row>
     <row r="124" spans="5:5">
-      <c r="E124" s="7"/>
+      <c r="E124" s="5"/>
     </row>
     <row r="125" spans="5:5">
-      <c r="E125" s="7"/>
+      <c r="E125" s="5"/>
     </row>
     <row r="126" spans="5:5">
-      <c r="E126" s="7"/>
+      <c r="E126" s="5"/>
     </row>
     <row r="127" spans="5:5">
-      <c r="E127" s="7"/>
+      <c r="E127" s="5"/>
     </row>
     <row r="128" spans="5:5">
-      <c r="E128" s="7"/>
+      <c r="E128" s="5"/>
     </row>
     <row r="129" spans="5:5">
-      <c r="E129" s="7"/>
+      <c r="E129" s="5"/>
     </row>
     <row r="130" spans="5:5">
-      <c r="E130" s="7"/>
+      <c r="E130" s="5"/>
     </row>
     <row r="131" spans="5:5">
-      <c r="E131" s="7"/>
+      <c r="E131" s="5"/>
     </row>
     <row r="132" spans="5:5">
-      <c r="E132" s="7"/>
+      <c r="E132" s="5"/>
     </row>
     <row r="133" spans="5:5">
-      <c r="E133" s="7"/>
+      <c r="E133" s="5"/>
     </row>
     <row r="134" spans="5:5">
-      <c r="E134" s="7"/>
+      <c r="E134" s="5"/>
     </row>
     <row r="135" spans="5:5">
-      <c r="E135" s="7"/>
+      <c r="E135" s="5"/>
     </row>
     <row r="136" spans="5:5">
-      <c r="E136" s="7"/>
+      <c r="E136" s="5"/>
     </row>
     <row r="137" spans="5:5">
-      <c r="E137" s="7"/>
+      <c r="E137" s="5"/>
     </row>
     <row r="138" spans="5:5">
-      <c r="E138" s="7"/>
+      <c r="E138" s="5"/>
     </row>
     <row r="139" spans="5:5">
-      <c r="E139" s="7"/>
+      <c r="E139" s="5"/>
     </row>
     <row r="140" spans="5:5">
-      <c r="E140" s="7"/>
+      <c r="E140" s="5"/>
     </row>
     <row r="141" spans="5:5">
-      <c r="E141" s="7"/>
+      <c r="E141" s="5"/>
     </row>
     <row r="142" spans="5:5">
-      <c r="E142" s="7"/>
+      <c r="E142" s="5"/>
     </row>
     <row r="143" spans="5:5">
-      <c r="E143" s="7"/>
+      <c r="E143" s="5"/>
     </row>
     <row r="144" spans="5:5">
-      <c r="E144" s="7"/>
+      <c r="E144" s="5"/>
     </row>
     <row r="145" spans="5:5">
-      <c r="E145" s="7"/>
+      <c r="E145" s="5"/>
     </row>
     <row r="146" spans="5:5">
-      <c r="E146" s="7"/>
+      <c r="E146" s="5"/>
     </row>
     <row r="147" spans="5:5">
-      <c r="E147" s="7"/>
+      <c r="E147" s="5"/>
     </row>
     <row r="148" spans="5:5">
-      <c r="E148" s="7"/>
+      <c r="E148" s="5"/>
     </row>
     <row r="149" spans="5:5">
-      <c r="E149" s="7"/>
+      <c r="E149" s="5"/>
     </row>
     <row r="150" spans="5:5">
-      <c r="E150" s="7"/>
+      <c r="E150" s="5"/>
     </row>
     <row r="151" spans="5:5">
-      <c r="E151" s="7"/>
+      <c r="E151" s="5"/>
     </row>
     <row r="152" spans="5:5">
-      <c r="E152" s="7"/>
+      <c r="E152" s="5"/>
     </row>
     <row r="153" spans="5:5">
-      <c r="E153" s="7"/>
+      <c r="E153" s="5"/>
     </row>
     <row r="154" spans="5:5">
-      <c r="E154" s="7"/>
+      <c r="E154" s="5"/>
     </row>
     <row r="155" spans="5:5">
-      <c r="E155" s="7"/>
+      <c r="E155" s="5"/>
     </row>
     <row r="156" spans="5:5">
-      <c r="E156" s="7"/>
+      <c r="E156" s="5"/>
     </row>
     <row r="157" spans="5:5">
-      <c r="E157" s="7"/>
+      <c r="E157" s="5"/>
     </row>
     <row r="158" spans="5:5">
-      <c r="E158" s="7"/>
+      <c r="E158" s="5"/>
     </row>
     <row r="159" spans="5:5">
-      <c r="E159" s="7"/>
+      <c r="E159" s="5"/>
     </row>
     <row r="160" spans="5:5">
-      <c r="E160" s="7"/>
+      <c r="E160" s="5"/>
     </row>
     <row r="161" spans="5:5">
-      <c r="E161" s="7"/>
+      <c r="E161" s="5"/>
     </row>
     <row r="162" spans="5:5">
-      <c r="E162" s="7"/>
+      <c r="E162" s="5"/>
     </row>
     <row r="163" spans="5:5">
-      <c r="E163" s="7"/>
+      <c r="E163" s="5"/>
     </row>
     <row r="164" spans="5:5">
-      <c r="E164" s="7"/>
+      <c r="E164" s="5"/>
     </row>
     <row r="165" spans="5:5">
-      <c r="E165" s="7"/>
+      <c r="E165" s="5"/>
     </row>
     <row r="166" spans="5:5">
-      <c r="E166" s="7"/>
+      <c r="E166" s="5"/>
     </row>
     <row r="167" spans="5:5">
-      <c r="E167" s="7"/>
+      <c r="E167" s="5"/>
     </row>
     <row r="168" spans="5:5">
-      <c r="E168" s="7"/>
+      <c r="E168" s="5"/>
     </row>
     <row r="169" spans="5:5">
-      <c r="E169" s="7"/>
+      <c r="E169" s="5"/>
     </row>
     <row r="170" spans="5:5">
-      <c r="E170" s="7"/>
+      <c r="E170" s="5"/>
     </row>
     <row r="171" spans="5:5">
-      <c r="E171" s="7"/>
+      <c r="E171" s="5"/>
     </row>
     <row r="172" spans="5:5">
-      <c r="E172" s="7"/>
+      <c r="E172" s="5"/>
     </row>
     <row r="173" spans="5:5">
-      <c r="E173" s="7"/>
+      <c r="E173" s="5"/>
     </row>
     <row r="174" spans="5:5">
-      <c r="E174" s="7"/>
+      <c r="E174" s="5"/>
     </row>
     <row r="175" spans="5:5">
-      <c r="E175" s="7"/>
+      <c r="E175" s="5"/>
     </row>
     <row r="176" spans="5:5">
-      <c r="E176" s="7"/>
+      <c r="E176" s="5"/>
     </row>
     <row r="177" spans="5:5">
-      <c r="E177" s="7"/>
+      <c r="E177" s="5"/>
     </row>
     <row r="178" spans="5:5">
-      <c r="E178" s="7"/>
+      <c r="E178" s="5"/>
     </row>
     <row r="179" spans="5:5">
-      <c r="E179" s="7"/>
+      <c r="E179" s="5"/>
     </row>
     <row r="180" spans="5:5">
-      <c r="E180" s="7"/>
+      <c r="E180" s="5"/>
     </row>
     <row r="181" spans="5:5">
-      <c r="E181" s="7"/>
+      <c r="E181" s="5"/>
     </row>
     <row r="182" spans="5:5">
-      <c r="E182" s="7"/>
+      <c r="E182" s="5"/>
     </row>
     <row r="183" spans="5:5">
-      <c r="E183" s="7"/>
+      <c r="E183" s="5"/>
     </row>
     <row r="184" spans="5:5">
-      <c r="E184" s="7"/>
+      <c r="E184" s="5"/>
     </row>
     <row r="185" spans="5:5">
-      <c r="E185" s="7"/>
+      <c r="E185" s="5"/>
     </row>
     <row r="186" spans="5:5">
-      <c r="E186" s="7"/>
+      <c r="E186" s="5"/>
     </row>
     <row r="187" spans="5:5">
-      <c r="E187" s="7"/>
+      <c r="E187" s="5"/>
     </row>
     <row r="188" spans="5:5">
-      <c r="E188" s="7"/>
+      <c r="E188" s="5"/>
     </row>
     <row r="189" spans="5:5">
-      <c r="E189" s="7"/>
+      <c r="E189" s="5"/>
     </row>
     <row r="190" spans="5:5">
-      <c r="E190" s="7"/>
+      <c r="E190" s="5"/>
     </row>
     <row r="191" spans="5:5">
-      <c r="E191" s="7"/>
+      <c r="E191" s="5"/>
     </row>
     <row r="192" spans="5:5">
-      <c r="E192" s="7"/>
+      <c r="E192" s="5"/>
     </row>
     <row r="193" spans="5:5">
-      <c r="E193" s="7"/>
+      <c r="E193" s="5"/>
     </row>
     <row r="194" spans="5:5">
-      <c r="E194" s="7"/>
+      <c r="E194" s="5"/>
     </row>
     <row r="195" spans="5:5">
-      <c r="E195" s="7"/>
+      <c r="E195" s="5"/>
     </row>
     <row r="196" spans="5:5">
-      <c r="E196" s="7"/>
+      <c r="E196" s="5"/>
     </row>
     <row r="197" spans="5:5">
-      <c r="E197" s="7"/>
+      <c r="E197" s="5"/>
     </row>
     <row r="198" spans="5:5">
-      <c r="E198" s="7"/>
+      <c r="E198" s="5"/>
     </row>
     <row r="199" spans="5:5">
-      <c r="E199" s="7"/>
+      <c r="E199" s="5"/>
     </row>
     <row r="200" spans="5:5">
-      <c r="E200" s="7"/>
+      <c r="E200" s="5"/>
     </row>
     <row r="201" spans="5:5">
-      <c r="E201" s="7"/>
+      <c r="E201" s="5"/>
     </row>
     <row r="202" spans="5:5">
-      <c r="E202" s="7"/>
+      <c r="E202" s="5"/>
     </row>
     <row r="203" spans="5:5">
-      <c r="E203" s="7"/>
+      <c r="E203" s="5"/>
     </row>
     <row r="204" spans="5:5">
-      <c r="E204" s="7"/>
+      <c r="E204" s="5"/>
     </row>
     <row r="205" spans="5:5">
-      <c r="E205" s="7"/>
+      <c r="E205" s="5"/>
     </row>
     <row r="206" spans="5:5">
-      <c r="E206" s="7"/>
+      <c r="E206" s="5"/>
     </row>
     <row r="207" spans="5:5">
-      <c r="E207" s="7"/>
+      <c r="E207" s="5"/>
     </row>
     <row r="208" spans="5:5">
-      <c r="E208" s="7"/>
+      <c r="E208" s="5"/>
     </row>
     <row r="209" spans="5:5">
-      <c r="E209" s="7"/>
+      <c r="E209" s="5"/>
     </row>
     <row r="210" spans="5:5">
-      <c r="E210" s="7"/>
+      <c r="E210" s="5"/>
     </row>
     <row r="211" spans="5:5">
-      <c r="E211" s="7"/>
+      <c r="E211" s="5"/>
     </row>
     <row r="212" spans="5:5">
-      <c r="E212" s="7"/>
+      <c r="E212" s="5"/>
     </row>
     <row r="213" spans="5:5">
-      <c r="E213" s="7"/>
+      <c r="E213" s="5"/>
     </row>
     <row r="214" spans="5:5">
-      <c r="E214" s="7"/>
+      <c r="E214" s="5"/>
     </row>
     <row r="215" spans="5:5">
-      <c r="E215" s="7"/>
+      <c r="E215" s="5"/>
     </row>
     <row r="216" spans="5:5">
-      <c r="E216" s="7"/>
+      <c r="E216" s="5"/>
     </row>
     <row r="217" spans="5:5">
-      <c r="E217" s="7"/>
+      <c r="E217" s="5"/>
     </row>
     <row r="218" spans="5:5">
-      <c r="E218" s="7"/>
+      <c r="E218" s="5"/>
     </row>
     <row r="219" spans="5:5">
-      <c r="E219" s="7"/>
+      <c r="E219" s="5"/>
     </row>
     <row r="220" spans="5:5">
-      <c r="E220" s="7"/>
+      <c r="E220" s="5"/>
     </row>
     <row r="221" spans="5:5">
-      <c r="E221" s="7"/>
+      <c r="E221" s="5"/>
     </row>
     <row r="222" spans="5:5">
-      <c r="E222" s="7"/>
+      <c r="E222" s="5"/>
     </row>
     <row r="223" spans="5:5">
-      <c r="E223" s="7"/>
+      <c r="E223" s="5"/>
     </row>
     <row r="224" spans="5:5">
-      <c r="E224" s="7"/>
+      <c r="E224" s="5"/>
     </row>
     <row r="225" spans="5:5">
-      <c r="E225" s="7"/>
+      <c r="E225" s="5"/>
     </row>
     <row r="226" spans="5:5">
-      <c r="E226" s="7"/>
+      <c r="E226" s="5"/>
     </row>
     <row r="227" spans="5:5">
-      <c r="E227" s="7"/>
+      <c r="E227" s="5"/>
     </row>
     <row r="228" spans="5:5">
-      <c r="E228" s="7"/>
+      <c r="E228" s="5"/>
     </row>
     <row r="229" spans="5:5">
-      <c r="E229" s="7"/>
+      <c r="E229" s="5"/>
     </row>
     <row r="230" spans="5:5">
-      <c r="E230" s="7"/>
+      <c r="E230" s="5"/>
     </row>
     <row r="231" spans="5:5">
-      <c r="E231" s="7"/>
+      <c r="E231" s="5"/>
     </row>
     <row r="232" spans="5:5">
-      <c r="E232" s="7"/>
+      <c r="E232" s="5"/>
     </row>
     <row r="233" spans="5:5">
-      <c r="E233" s="7"/>
+      <c r="E233" s="5"/>
     </row>
     <row r="234" spans="5:5">
-      <c r="E234" s="7"/>
+      <c r="E234" s="5"/>
     </row>
     <row r="235" spans="5:5">
-      <c r="E235" s="7"/>
+      <c r="E235" s="5"/>
     </row>
     <row r="236" spans="5:5">
-      <c r="E236" s="7"/>
+      <c r="E236" s="5"/>
     </row>
     <row r="237" spans="5:5">
-      <c r="E237" s="7"/>
+      <c r="E237" s="5"/>
     </row>
     <row r="238" spans="5:5">
-      <c r="E238" s="7"/>
+      <c r="E238" s="5"/>
     </row>
     <row r="239" spans="5:5">
-      <c r="E239" s="7"/>
+      <c r="E239" s="5"/>
     </row>
     <row r="240" spans="5:5">
-      <c r="E240" s="7"/>
+      <c r="E240" s="5"/>
     </row>
     <row r="241" spans="5:5">
-      <c r="E241" s="7"/>
+      <c r="E241" s="5"/>
     </row>
     <row r="242" spans="5:5">
-      <c r="E242" s="7"/>
+      <c r="E242" s="5"/>
     </row>
     <row r="243" spans="5:5">
-      <c r="E243" s="7"/>
+      <c r="E243" s="5"/>
     </row>
     <row r="244" spans="5:5">
-      <c r="E244" s="7"/>
+      <c r="E244" s="5"/>
     </row>
     <row r="245" spans="5:5">
-      <c r="E245" s="7"/>
+      <c r="E245" s="5"/>
     </row>
     <row r="246" spans="5:5">
-      <c r="E246" s="7"/>
+      <c r="E246" s="5"/>
     </row>
     <row r="247" spans="5:5">
-      <c r="E247" s="7"/>
+      <c r="E247" s="5"/>
     </row>
     <row r="248" spans="5:5">
-      <c r="E248" s="7"/>
+      <c r="E248" s="5"/>
     </row>
     <row r="249" spans="5:5">
-      <c r="E249" s="7"/>
+      <c r="E249" s="5"/>
     </row>
     <row r="250" spans="5:5">
-      <c r="E250" s="7"/>
+      <c r="E250" s="5"/>
     </row>
     <row r="251" spans="5:5">
-      <c r="E251" s="7"/>
+      <c r="E251" s="5"/>
     </row>
     <row r="252" spans="5:5">
-      <c r="E252" s="7"/>
+      <c r="E252" s="5"/>
     </row>
     <row r="253" spans="5:5">
-      <c r="E253" s="7"/>
+      <c r="E253" s="5"/>
     </row>
     <row r="254" spans="5:5">
-      <c r="E254" s="7"/>
+      <c r="E254" s="5"/>
     </row>
     <row r="255" spans="5:5">
-      <c r="E255" s="7"/>
+      <c r="E255" s="5"/>
     </row>
     <row r="256" spans="5:5">
-      <c r="E256" s="7"/>
+      <c r="E256" s="5"/>
     </row>
     <row r="257" spans="5:5">
-      <c r="E257" s="7"/>
+      <c r="E257" s="5"/>
     </row>
     <row r="258" spans="5:5">
-      <c r="E258" s="7"/>
+      <c r="E258" s="5"/>
     </row>
     <row r="259" spans="5:5">
-      <c r="E259" s="7"/>
+      <c r="E259" s="5"/>
     </row>
     <row r="260" spans="5:5">
-      <c r="E260" s="7"/>
+      <c r="E260" s="5"/>
     </row>
     <row r="261" spans="5:5">
-      <c r="E261" s="7"/>
+      <c r="E261" s="5"/>
     </row>
     <row r="262" spans="5:5">
-      <c r="E262" s="7"/>
+      <c r="E262" s="5"/>
     </row>
     <row r="263" spans="5:5">
-      <c r="E263" s="7"/>
+      <c r="E263" s="5"/>
     </row>
     <row r="264" spans="5:5">
-      <c r="E264" s="7"/>
+      <c r="E264" s="5"/>
     </row>
     <row r="265" spans="5:5">
-      <c r="E265" s="7"/>
+      <c r="E265" s="5"/>
     </row>
     <row r="266" spans="5:5">
-      <c r="E266" s="7"/>
+      <c r="E266" s="5"/>
     </row>
     <row r="267" spans="5:5">
-      <c r="E267" s="7"/>
+      <c r="E267" s="5"/>
     </row>
     <row r="268" spans="5:5">
-      <c r="E268" s="7"/>
+      <c r="E268" s="5"/>
     </row>
     <row r="269" spans="5:5">
-      <c r="E269" s="7"/>
+      <c r="E269" s="5"/>
     </row>
     <row r="270" spans="5:5">
-      <c r="E270" s="7"/>
+      <c r="E270" s="5"/>
     </row>
     <row r="271" spans="5:5">
-      <c r="E271" s="7"/>
+      <c r="E271" s="5"/>
     </row>
     <row r="272" spans="5:5">
-      <c r="E272" s="7"/>
+      <c r="E272" s="5"/>
     </row>
     <row r="273" spans="5:5">
-      <c r="E273" s="7"/>
+      <c r="E273" s="5"/>
     </row>
     <row r="274" spans="5:5">
-      <c r="E274" s="7"/>
+      <c r="E274" s="5"/>
     </row>
     <row r="275" spans="5:5">
-      <c r="E275" s="7"/>
+      <c r="E275" s="5"/>
     </row>
     <row r="276" spans="5:5">
-      <c r="E276" s="7"/>
+      <c r="E276" s="5"/>
     </row>
     <row r="277" spans="5:5">
-      <c r="E277" s="7"/>
+      <c r="E277" s="5"/>
     </row>
     <row r="278" spans="5:5">
-      <c r="E278" s="7"/>
+      <c r="E278" s="5"/>
     </row>
     <row r="279" spans="5:5">
-      <c r="E279" s="7"/>
+      <c r="E279" s="5"/>
     </row>
     <row r="280" spans="5:5">
-      <c r="E280" s="7"/>
+      <c r="E280" s="5"/>
     </row>
     <row r="281" spans="5:5">
-      <c r="E281" s="7"/>
+      <c r="E281" s="5"/>
     </row>
     <row r="282" spans="5:5">
-      <c r="E282" s="7"/>
+      <c r="E282" s="5"/>
     </row>
     <row r="283" spans="5:5">
-      <c r="E283" s="7"/>
+      <c r="E283" s="5"/>
     </row>
     <row r="284" spans="5:5">
-      <c r="E284" s="7"/>
+      <c r="E284" s="5"/>
     </row>
     <row r="285" spans="5:5">
-      <c r="E285" s="7"/>
+      <c r="E285" s="5"/>
     </row>
     <row r="286" spans="5:5">
-      <c r="E286" s="7"/>
+      <c r="E286" s="5"/>
     </row>
     <row r="287" spans="5:5">
-      <c r="E287" s="7"/>
+      <c r="E287" s="5"/>
     </row>
     <row r="288" spans="5:5">
-      <c r="E288" s="7"/>
+      <c r="E288" s="5"/>
     </row>
     <row r="289" spans="5:5">
-      <c r="E289" s="7"/>
+      <c r="E289" s="5"/>
     </row>
     <row r="290" spans="5:5">
-      <c r="E290" s="7"/>
+      <c r="E290" s="5"/>
     </row>
     <row r="291" spans="5:5">
-      <c r="E291" s="7"/>
+      <c r="E291" s="5"/>
     </row>
     <row r="292" spans="5:5">
-      <c r="E292" s="7"/>
+      <c r="E292" s="5"/>
     </row>
     <row r="293" spans="5:5">
-      <c r="E293" s="7"/>
+      <c r="E293" s="5"/>
     </row>
     <row r="294" spans="5:5">
-      <c r="E294" s="7"/>
+      <c r="E294" s="5"/>
     </row>
     <row r="295" spans="5:5">
-      <c r="E295" s="7"/>
+      <c r="E295" s="5"/>
     </row>
     <row r="296" spans="5:5">
-      <c r="E296" s="7"/>
+      <c r="E296" s="5"/>
     </row>
     <row r="297" spans="5:5">
-      <c r="E297" s="7"/>
+      <c r="E297" s="5"/>
     </row>
     <row r="298" spans="5:5">
-      <c r="E298" s="7"/>
+      <c r="E298" s="5"/>
     </row>
     <row r="299" spans="5:5">
-      <c r="E299" s="7"/>
+      <c r="E299" s="5"/>
     </row>
     <row r="300" spans="5:5">
-      <c r="E300" s="7"/>
+      <c r="E300" s="5"/>
     </row>
     <row r="301" spans="5:5">
-      <c r="E301" s="7"/>
+      <c r="E301" s="5"/>
     </row>
     <row r="302" spans="5:5">
-      <c r="E302" s="7"/>
+      <c r="E302" s="5"/>
     </row>
     <row r="303" spans="5:5">
-      <c r="E303" s="7"/>
+      <c r="E303" s="5"/>
     </row>
     <row r="304" spans="5:5">
-      <c r="E304" s="7"/>
+      <c r="E304" s="5"/>
     </row>
     <row r="305" spans="5:5">
-      <c r="E305" s="7"/>
+      <c r="E305" s="5"/>
     </row>
     <row r="306" spans="5:5">
-      <c r="E306" s="7"/>
+      <c r="E306" s="5"/>
     </row>
     <row r="307" spans="5:5">
-      <c r="E307" s="7"/>
+      <c r="E307" s="5"/>
     </row>
     <row r="308" spans="5:5">
-      <c r="E308" s="7"/>
+      <c r="E308" s="5"/>
     </row>
     <row r="309" spans="5:5">
-      <c r="E309" s="7"/>
+      <c r="E309" s="5"/>
     </row>
     <row r="310" spans="5:5">
-      <c r="E310" s="7"/>
+      <c r="E310" s="5"/>
     </row>
     <row r="311" spans="5:5">
-      <c r="E311" s="7"/>
+      <c r="E311" s="5"/>
     </row>
     <row r="312" spans="5:5">
-      <c r="E312" s="7"/>
+      <c r="E312" s="5"/>
     </row>
     <row r="313" spans="5:5">
-      <c r="E313" s="7"/>
+      <c r="E313" s="5"/>
     </row>
     <row r="314" spans="5:5">
-      <c r="E314" s="7"/>
+      <c r="E314" s="5"/>
     </row>
     <row r="315" spans="5:5">
-      <c r="E315" s="7"/>
+      <c r="E315" s="5"/>
     </row>
     <row r="316" spans="5:5">
-      <c r="E316" s="7"/>
+      <c r="E316" s="5"/>
     </row>
     <row r="317" spans="5:5">
-      <c r="E317" s="7"/>
+      <c r="E317" s="5"/>
     </row>
     <row r="318" spans="5:5">
-      <c r="E318" s="7"/>
+      <c r="E318" s="5"/>
     </row>
     <row r="319" spans="5:5">
-      <c r="E319" s="7"/>
+      <c r="E319" s="5"/>
     </row>
     <row r="320" spans="5:5">
-      <c r="E320" s="7"/>
+      <c r="E320" s="5"/>
     </row>
     <row r="321" spans="5:5">
-      <c r="E321" s="7"/>
+      <c r="E321" s="5"/>
     </row>
     <row r="322" spans="5:5">
-      <c r="E322" s="7"/>
+      <c r="E322" s="5"/>
     </row>
     <row r="323" spans="5:5">
-      <c r="E323" s="7"/>
+      <c r="E323" s="5"/>
     </row>
     <row r="324" spans="5:5">
-      <c r="E324" s="7"/>
+      <c r="E324" s="5"/>
     </row>
     <row r="325" spans="5:5">
-      <c r="E325" s="7"/>
+      <c r="E325" s="5"/>
     </row>
     <row r="326" spans="5:5">
-      <c r="E326" s="7"/>
+      <c r="E326" s="5"/>
     </row>
     <row r="327" spans="5:5">
-      <c r="E327" s="7"/>
+      <c r="E327" s="5"/>
     </row>
     <row r="328" spans="5:5">
-      <c r="E328" s="7"/>
+      <c r="E328" s="5"/>
     </row>
     <row r="329" spans="5:5">
-      <c r="E329" s="7"/>
+      <c r="E329" s="5"/>
     </row>
     <row r="330" spans="5:5">
-      <c r="E330" s="7"/>
+      <c r="E330" s="5"/>
     </row>
     <row r="331" spans="5:5">
-      <c r="E331" s="7"/>
+      <c r="E331" s="5"/>
     </row>
     <row r="332" spans="5:5">
-      <c r="E332" s="7"/>
+      <c r="E332" s="5"/>
     </row>
     <row r="333" spans="5:5">
-      <c r="E333" s="7"/>
+      <c r="E333" s="5"/>
     </row>
     <row r="334" spans="5:5">
-      <c r="E334" s="7"/>
+      <c r="E334" s="5"/>
     </row>
     <row r="335" spans="5:5">
-      <c r="E335" s="7"/>
+      <c r="E335" s="5"/>
     </row>
     <row r="336" spans="5:5">
-      <c r="E336" s="7"/>
+      <c r="E336" s="5"/>
     </row>
     <row r="337" spans="5:5">
-      <c r="E337" s="7"/>
+      <c r="E337" s="5"/>
     </row>
     <row r="338" spans="5:5">
-      <c r="E338" s="7"/>
+      <c r="E338" s="5"/>
     </row>
     <row r="339" spans="5:5">
-      <c r="E339" s="7"/>
+      <c r="E339" s="5"/>
     </row>
     <row r="340" spans="5:5">
-      <c r="E340" s="7"/>
+      <c r="E340" s="5"/>
     </row>
     <row r="341" spans="5:5">
-      <c r="E341" s="7"/>
+      <c r="E341" s="5"/>
     </row>
     <row r="342" spans="5:5">
-      <c r="E342" s="7"/>
+      <c r="E342" s="5"/>
     </row>
     <row r="343" spans="5:5">
-      <c r="E343" s="7"/>
+      <c r="E343" s="5"/>
     </row>
     <row r="344" spans="5:5">
-      <c r="E344" s="7"/>
+      <c r="E344" s="5"/>
     </row>
     <row r="345" spans="5:5">
-      <c r="E345" s="7"/>
+      <c r="E345" s="5"/>
     </row>
     <row r="346" spans="5:5">
-      <c r="E346" s="7"/>
+      <c r="E346" s="5"/>
     </row>
     <row r="347" spans="5:5">
-      <c r="E347" s="7"/>
+      <c r="E347" s="5"/>
     </row>
     <row r="348" spans="5:5">
-      <c r="E348" s="7"/>
+      <c r="E348" s="5"/>
     </row>
     <row r="349" spans="5:5">
-      <c r="E349" s="7"/>
+      <c r="E349" s="5"/>
     </row>
     <row r="350" spans="5:5">
-      <c r="E350" s="7"/>
+      <c r="E350" s="5"/>
     </row>
     <row r="351" spans="5:5">
-      <c r="E351" s="7"/>
+      <c r="E351" s="5"/>
     </row>
     <row r="352" spans="5:5">
-      <c r="E352" s="7"/>
+      <c r="E352" s="5"/>
     </row>
     <row r="353" spans="5:5">
-      <c r="E353" s="7"/>
+      <c r="E353" s="5"/>
     </row>
     <row r="354" spans="5:5">
-      <c r="E354" s="7"/>
+      <c r="E354" s="5"/>
     </row>
     <row r="355" spans="5:5">
-      <c r="E355" s="7"/>
+      <c r="E355" s="5"/>
     </row>
     <row r="356" spans="5:5">
-      <c r="E356" s="7"/>
+      <c r="E356" s="5"/>
     </row>
     <row r="357" spans="5:5">
-      <c r="E357" s="7"/>
+      <c r="E357" s="5"/>
     </row>
     <row r="358" spans="5:5">
-      <c r="E358" s="7"/>
+      <c r="E358" s="5"/>
     </row>
     <row r="359" spans="5:5">
-      <c r="E359" s="7"/>
+      <c r="E359" s="5"/>
     </row>
     <row r="360" spans="5:5">
-      <c r="E360" s="7"/>
+      <c r="E360" s="5"/>
     </row>
     <row r="361" spans="5:5">
-      <c r="E361" s="7"/>
+      <c r="E361" s="5"/>
     </row>
     <row r="362" spans="5:5">
-      <c r="E362" s="7"/>
+      <c r="E362" s="5"/>
     </row>
     <row r="363" spans="5:5">
-      <c r="E363" s="7"/>
+      <c r="E363" s="5"/>
     </row>
     <row r="364" spans="5:5">
-      <c r="E364" s="7"/>
+      <c r="E364" s="5"/>
     </row>
     <row r="365" spans="5:5">
-      <c r="E365" s="7"/>
+      <c r="E365" s="5"/>
     </row>
     <row r="366" spans="5:5">
-      <c r="E366" s="7"/>
+      <c r="E366" s="5"/>
     </row>
     <row r="367" spans="5:5">
-      <c r="E367" s="7"/>
+      <c r="E367" s="5"/>
     </row>
     <row r="368" spans="5:5">
-      <c r="E368" s="7"/>
+      <c r="E368" s="5"/>
     </row>
     <row r="369" spans="5:5">
-      <c r="E369" s="7"/>
+      <c r="E369" s="5"/>
     </row>
     <row r="370" spans="5:5">
-      <c r="E370" s="7"/>
+      <c r="E370" s="5"/>
     </row>
     <row r="371" spans="5:5">
-      <c r="E371" s="7"/>
+      <c r="E371" s="5"/>
     </row>
     <row r="372" spans="5:5">
-      <c r="E372" s="7"/>
+      <c r="E372" s="5"/>
     </row>
     <row r="373" spans="5:5">
-      <c r="E373" s="7"/>
+      <c r="E373" s="5"/>
     </row>
     <row r="374" spans="5:5">
-      <c r="E374" s="7"/>
+      <c r="E374" s="5"/>
     </row>
     <row r="375" spans="5:5">
-      <c r="E375" s="7"/>
+      <c r="E375" s="5"/>
     </row>
     <row r="376" spans="5:5">
-      <c r="E376" s="7"/>
+      <c r="E376" s="5"/>
     </row>
     <row r="377" spans="5:5">
-      <c r="E377" s="7"/>
+      <c r="E377" s="5"/>
     </row>
     <row r="378" spans="5:5">
-      <c r="E378" s="7"/>
+      <c r="E378" s="5"/>
     </row>
     <row r="379" spans="5:5">
-      <c r="E379" s="7"/>
+      <c r="E379" s="5"/>
     </row>
     <row r="380" spans="5:5">
-      <c r="E380" s="7"/>
+      <c r="E380" s="5"/>
     </row>
     <row r="381" spans="5:5">
-      <c r="E381" s="7"/>
+      <c r="E381" s="5"/>
     </row>
     <row r="382" spans="5:5">
-      <c r="E382" s="7"/>
+      <c r="E382" s="5"/>
     </row>
     <row r="383" spans="5:5">
-      <c r="E383" s="7"/>
+      <c r="E383" s="5"/>
     </row>
     <row r="384" spans="5:5">
-      <c r="E384" s="7"/>
+      <c r="E384" s="5"/>
     </row>
     <row r="385" spans="5:5">
-      <c r="E385" s="7"/>
+      <c r="E385" s="5"/>
     </row>
     <row r="386" spans="5:5">
-      <c r="E386" s="7"/>
+      <c r="E386" s="5"/>
     </row>
     <row r="387" spans="5:5">
-      <c r="E387" s="7"/>
+      <c r="E387" s="5"/>
     </row>
     <row r="388" spans="5:5">
-      <c r="E388" s="7"/>
+      <c r="E388" s="5"/>
     </row>
     <row r="389" spans="5:5">
-      <c r="E389" s="7"/>
+      <c r="E389" s="5"/>
     </row>
     <row r="390" spans="5:5">
-      <c r="E390" s="7"/>
+      <c r="E390" s="5"/>
     </row>
     <row r="391" spans="5:5">
-      <c r="E391" s="7"/>
+      <c r="E391" s="5"/>
     </row>
     <row r="392" spans="5:5">
-      <c r="E392" s="7"/>
+      <c r="E392" s="5"/>
     </row>
     <row r="393" spans="5:5">
-      <c r="E393" s="7"/>
+      <c r="E393" s="5"/>
     </row>
     <row r="394" spans="5:5">
-      <c r="E394" s="7"/>
+      <c r="E394" s="5"/>
     </row>
     <row r="395" spans="5:5">
-      <c r="E395" s="7"/>
+      <c r="E395" s="5"/>
     </row>
     <row r="396" spans="5:5">
-      <c r="E396" s="7"/>
+      <c r="E396" s="5"/>
     </row>
     <row r="397" spans="5:5">
-      <c r="E397" s="7"/>
+      <c r="E397" s="5"/>
     </row>
     <row r="398" spans="5:5">
-      <c r="E398" s="7"/>
+      <c r="E398" s="5"/>
     </row>
     <row r="399" spans="5:5">
-      <c r="E399" s="7"/>
+      <c r="E399" s="5"/>
     </row>
     <row r="400" spans="5:5">
-      <c r="E400" s="7"/>
+      <c r="E400" s="5"/>
     </row>
     <row r="401" spans="5:5">
-      <c r="E401" s="7"/>
+      <c r="E401" s="5"/>
     </row>
     <row r="402" spans="5:5">
-      <c r="E402" s="7"/>
+      <c r="E402" s="5"/>
     </row>
     <row r="403" spans="5:5">
-      <c r="E403" s="7"/>
+      <c r="E403" s="5"/>
     </row>
     <row r="404" spans="5:5">
-      <c r="E404" s="7"/>
+      <c r="E404" s="5"/>
     </row>
     <row r="405" spans="5:5">
-      <c r="E405" s="7"/>
+      <c r="E405" s="5"/>
     </row>
     <row r="406" spans="5:5">
-      <c r="E406" s="7"/>
+      <c r="E406" s="5"/>
     </row>
     <row r="407" spans="5:5">
-      <c r="E407" s="7"/>
+      <c r="E407" s="5"/>
     </row>
     <row r="408" spans="5:5">
-      <c r="E408" s="7"/>
+      <c r="E408" s="5"/>
     </row>
     <row r="409" spans="5:5">
-      <c r="E409" s="7"/>
+      <c r="E409" s="5"/>
     </row>
     <row r="410" spans="5:5">
-      <c r="E410" s="7"/>
+      <c r="E410" s="5"/>
     </row>
     <row r="411" spans="5:5">
-      <c r="E411" s="7"/>
+      <c r="E411" s="5"/>
     </row>
     <row r="412" spans="5:5">
-      <c r="E412" s="7"/>
+      <c r="E412" s="5"/>
     </row>
     <row r="413" spans="5:5">
-      <c r="E413" s="7"/>
+      <c r="E413" s="5"/>
     </row>
     <row r="414" spans="5:5">
-      <c r="E414" s="7"/>
+      <c r="E414" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A38 A65:A1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A38">
     <cfRule type="colorScale" priority="1">

--- a/Question/Yelp-Alltime.xlsx
+++ b/Question/Yelp-Alltime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D591EBC7-B38B-4353-B150-4E385FC31B8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBA86E6-3BD2-46F4-AB50-5008966FD2EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="345" windowWidth="7500" windowHeight="6000" xr2:uid="{5DE44689-42C0-45F9-856A-1609A8CE5BB8}"/>
+    <workbookView xWindow="345" yWindow="330" windowWidth="7500" windowHeight="6000" xr2:uid="{5DE44689-42C0-45F9-856A-1609A8CE5BB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -274,7 +274,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,8 +316,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,6 +361,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -382,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -412,6 +425,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -913,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7BD6BDD-6E13-4CFA-9B09-61E19E22488E}">
   <dimension ref="A1:E414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1116,7 +1130,7 @@
       <c r="C13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="15" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="5"/>
@@ -1131,7 +1145,7 @@
       <c r="C14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="14" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="5"/>
@@ -1146,7 +1160,7 @@
       <c r="C15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="14" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="5"/>
@@ -1161,7 +1175,7 @@
       <c r="C16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="5"/>
@@ -1176,7 +1190,7 @@
       <c r="C17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="14" t="s">
         <v>33</v>
       </c>
       <c r="E17" s="5"/>
@@ -1191,7 +1205,7 @@
       <c r="C18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="5"/>
@@ -1206,7 +1220,7 @@
       <c r="C19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E19" s="5"/>
@@ -1221,7 +1235,7 @@
       <c r="C20" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="14" t="s">
         <v>39</v>
       </c>
       <c r="E20" s="5"/>
@@ -1236,7 +1250,7 @@
       <c r="C21" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E21" s="5"/>
@@ -1497,81 +1511,185 @@
       <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:5">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
       <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:5">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
       <c r="E41" s="5"/>
     </row>
     <row r="42" spans="1:5">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
       <c r="E43" s="5"/>
     </row>
     <row r="44" spans="1:5">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
       <c r="E44" s="5"/>
     </row>
     <row r="45" spans="1:5">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
       <c r="E45" s="5"/>
     </row>
     <row r="46" spans="1:5">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
       <c r="E46" s="5"/>
     </row>
     <row r="47" spans="1:5">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
       <c r="E47" s="5"/>
     </row>
     <row r="48" spans="1:5">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="5:5">
+    <row r="49" spans="1:5">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="5:5">
+    <row r="50" spans="1:5">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="5:5">
+    <row r="51" spans="1:5">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="5:5">
+    <row r="52" spans="1:5">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="5:5">
+    <row r="53" spans="1:5">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="5:5">
+    <row r="54" spans="1:5">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="5:5">
+    <row r="55" spans="1:5">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="5:5">
+    <row r="56" spans="1:5">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
       <c r="E56" s="5"/>
     </row>
-    <row r="57" spans="5:5">
+    <row r="57" spans="1:5">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
       <c r="E57" s="5"/>
     </row>
-    <row r="58" spans="5:5">
+    <row r="58" spans="1:5">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
       <c r="E58" s="5"/>
     </row>
-    <row r="59" spans="5:5">
+    <row r="59" spans="1:5">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
       <c r="E59" s="5"/>
     </row>
-    <row r="60" spans="5:5">
+    <row r="60" spans="1:5">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
       <c r="E60" s="5"/>
     </row>
-    <row r="61" spans="5:5">
+    <row r="61" spans="1:5">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
       <c r="E61" s="5"/>
     </row>
-    <row r="62" spans="5:5">
+    <row r="62" spans="1:5">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
       <c r="E62" s="5"/>
     </row>
-    <row r="63" spans="5:5">
+    <row r="63" spans="1:5">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
       <c r="E63" s="5"/>
     </row>
-    <row r="64" spans="5:5">
+    <row r="64" spans="1:5">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
       <c r="E64" s="5"/>
     </row>
     <row r="65" spans="1:5">

--- a/Question/Yelp-Alltime.xlsx
+++ b/Question/Yelp-Alltime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBA86E6-3BD2-46F4-AB50-5008966FD2EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A957561-2884-41CE-9F16-572CD1E65749}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="345" yWindow="330" windowWidth="7500" windowHeight="6000" xr2:uid="{5DE44689-42C0-45F9-856A-1609A8CE5BB8}"/>
   </bookViews>
@@ -324,7 +324,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,6 +367,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -395,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -426,6 +438,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -927,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7BD6BDD-6E13-4CFA-9B09-61E19E22488E}">
   <dimension ref="A1:E414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1265,7 +1279,7 @@
       <c r="C22" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="16" t="s">
         <v>43</v>
       </c>
       <c r="E22" s="5"/>
@@ -1280,7 +1294,7 @@
       <c r="C23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="14" t="s">
         <v>45</v>
       </c>
       <c r="E23" s="5"/>
@@ -1295,7 +1309,7 @@
       <c r="C24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="14" t="s">
         <v>47</v>
       </c>
       <c r="E24" s="5"/>
@@ -1310,7 +1324,7 @@
       <c r="C25" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="17" t="s">
         <v>49</v>
       </c>
       <c r="E25" s="5"/>
@@ -1325,7 +1339,7 @@
       <c r="C26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="13" t="s">
         <v>51</v>
       </c>
       <c r="E26" s="5"/>
@@ -1340,7 +1354,7 @@
       <c r="C27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="14" t="s">
         <v>53</v>
       </c>
       <c r="E27" s="5"/>

--- a/Question/Yelp-Alltime.xlsx
+++ b/Question/Yelp-Alltime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A957561-2884-41CE-9F16-572CD1E65749}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD3BEA3-416C-4330-B2E0-168727075E85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="345" yWindow="330" windowWidth="7500" windowHeight="6000" xr2:uid="{5DE44689-42C0-45F9-856A-1609A8CE5BB8}"/>
   </bookViews>
@@ -941,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7BD6BDD-6E13-4CFA-9B09-61E19E22488E}">
   <dimension ref="A1:E414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1369,7 +1369,7 @@
       <c r="C28" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="14" t="s">
         <v>55</v>
       </c>
       <c r="E28" s="5"/>
@@ -1384,7 +1384,7 @@
       <c r="C29" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="14" t="s">
         <v>57</v>
       </c>
       <c r="E29" s="5"/>
@@ -1399,7 +1399,7 @@
       <c r="C30" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E30" s="5"/>
@@ -1414,7 +1414,7 @@
       <c r="C31" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="14" t="s">
         <v>61</v>
       </c>
       <c r="E31" s="5"/>
@@ -1429,7 +1429,7 @@
       <c r="C32" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="14" t="s">
         <v>63</v>
       </c>
       <c r="E32" s="5"/>
@@ -1444,7 +1444,7 @@
       <c r="C33" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="14" t="s">
         <v>65</v>
       </c>
       <c r="E33" s="5"/>
@@ -1459,7 +1459,7 @@
       <c r="C34" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="14" t="s">
         <v>67</v>
       </c>
       <c r="E34" s="5"/>
@@ -1474,7 +1474,7 @@
       <c r="C35" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="13" t="s">
         <v>69</v>
       </c>
       <c r="E35" s="5"/>
@@ -1489,7 +1489,7 @@
       <c r="C36" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E36" s="5"/>

--- a/Question/Yelp-Alltime.xlsx
+++ b/Question/Yelp-Alltime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD3BEA3-416C-4330-B2E0-168727075E85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033075F0-6F52-4523-8773-00CB0A5EB847}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="345" yWindow="330" windowWidth="7500" windowHeight="6000" xr2:uid="{5DE44689-42C0-45F9-856A-1609A8CE5BB8}"/>
   </bookViews>
@@ -407,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -430,7 +430,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -964,7 +963,7 @@
       <c r="C1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>78</v>
       </c>
       <c r="E1" s="5"/>
@@ -979,7 +978,7 @@
       <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5"/>
@@ -994,7 +993,7 @@
       <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="5"/>
@@ -1009,7 +1008,7 @@
       <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="5"/>
@@ -1024,7 +1023,7 @@
       <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="5"/>
@@ -1039,7 +1038,7 @@
       <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="5"/>
@@ -1054,7 +1053,7 @@
       <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="5"/>
@@ -1069,7 +1068,7 @@
       <c r="C8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="5"/>
@@ -1084,7 +1083,7 @@
       <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="5"/>
@@ -1099,7 +1098,7 @@
       <c r="C10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="5"/>
@@ -1114,7 +1113,7 @@
       <c r="C11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="5"/>
@@ -1129,7 +1128,7 @@
       <c r="C12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="5"/>
@@ -1144,7 +1143,7 @@
       <c r="C13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="5"/>
@@ -1159,7 +1158,7 @@
       <c r="C14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="5"/>
@@ -1174,7 +1173,7 @@
       <c r="C15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="5"/>
@@ -1189,7 +1188,7 @@
       <c r="C16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="5"/>
@@ -1204,7 +1203,7 @@
       <c r="C17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E17" s="5"/>
@@ -1219,7 +1218,7 @@
       <c r="C18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="13" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="5"/>
@@ -1234,7 +1233,7 @@
       <c r="C19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="13" t="s">
         <v>37</v>
       </c>
       <c r="E19" s="5"/>
@@ -1249,7 +1248,7 @@
       <c r="C20" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E20" s="5"/>
@@ -1264,7 +1263,7 @@
       <c r="C21" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>41</v>
       </c>
       <c r="E21" s="5"/>
@@ -1279,7 +1278,7 @@
       <c r="C22" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="15" t="s">
         <v>43</v>
       </c>
       <c r="E22" s="5"/>
@@ -1294,7 +1293,7 @@
       <c r="C23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E23" s="5"/>
@@ -1309,7 +1308,7 @@
       <c r="C24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="13" t="s">
         <v>47</v>
       </c>
       <c r="E24" s="5"/>
@@ -1324,7 +1323,7 @@
       <c r="C25" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="16" t="s">
         <v>49</v>
       </c>
       <c r="E25" s="5"/>
@@ -1339,7 +1338,7 @@
       <c r="C26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="12" t="s">
         <v>51</v>
       </c>
       <c r="E26" s="5"/>
@@ -1354,7 +1353,7 @@
       <c r="C27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="13" t="s">
         <v>53</v>
       </c>
       <c r="E27" s="5"/>
@@ -1369,7 +1368,7 @@
       <c r="C28" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="13" t="s">
         <v>55</v>
       </c>
       <c r="E28" s="5"/>
@@ -1384,7 +1383,7 @@
       <c r="C29" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E29" s="5"/>
@@ -1399,7 +1398,7 @@
       <c r="C30" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="13" t="s">
         <v>59</v>
       </c>
       <c r="E30" s="5"/>
@@ -1414,7 +1413,7 @@
       <c r="C31" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="13" t="s">
         <v>61</v>
       </c>
       <c r="E31" s="5"/>
@@ -1429,7 +1428,7 @@
       <c r="C32" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="13" t="s">
         <v>63</v>
       </c>
       <c r="E32" s="5"/>
@@ -1444,7 +1443,7 @@
       <c r="C33" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="13" t="s">
         <v>65</v>
       </c>
       <c r="E33" s="5"/>
@@ -1459,7 +1458,7 @@
       <c r="C34" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="13" t="s">
         <v>67</v>
       </c>
       <c r="E34" s="5"/>
@@ -1474,7 +1473,7 @@
       <c r="C35" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="12" t="s">
         <v>69</v>
       </c>
       <c r="E35" s="5"/>
@@ -1489,7 +1488,7 @@
       <c r="C36" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="13" t="s">
         <v>71</v>
       </c>
       <c r="E36" s="5"/>
@@ -1504,7 +1503,7 @@
       <c r="C37" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="13" t="s">
         <v>73</v>
       </c>
       <c r="E37" s="5"/>
@@ -1519,7 +1518,7 @@
       <c r="C38" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="13" t="s">
         <v>75</v>
       </c>
       <c r="E38" s="5"/>
@@ -1710,140 +1709,140 @@
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="9"/>
-      <c r="D65" s="11"/>
+      <c r="D65" s="10"/>
       <c r="E65" s="5"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="9"/>
-      <c r="D66" s="11"/>
+      <c r="D66" s="10"/>
       <c r="E66" s="5"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="9"/>
-      <c r="D67" s="11"/>
+      <c r="D67" s="10"/>
       <c r="E67" s="5"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="9"/>
-      <c r="D68" s="11"/>
+      <c r="D68" s="10"/>
       <c r="E68" s="5"/>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="9"/>
-      <c r="D69" s="11"/>
+      <c r="D69" s="10"/>
       <c r="E69" s="5"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="9"/>
-      <c r="D70" s="11"/>
+      <c r="D70" s="10"/>
       <c r="E70" s="5"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="9"/>
-      <c r="D71" s="11"/>
+      <c r="D71" s="10"/>
       <c r="E71" s="5"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="9"/>
-      <c r="D72" s="11"/>
+      <c r="D72" s="10"/>
       <c r="E72" s="5"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="9"/>
-      <c r="D73" s="11"/>
+      <c r="D73" s="10"/>
       <c r="E73" s="5"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="9"/>
-      <c r="D74" s="11"/>
+      <c r="D74" s="10"/>
       <c r="E74" s="5"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="9"/>
-      <c r="D75" s="11"/>
+      <c r="D75" s="10"/>
       <c r="E75" s="5"/>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="9"/>
-      <c r="D76" s="11"/>
+      <c r="D76" s="10"/>
       <c r="E76" s="5"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="9"/>
-      <c r="D77" s="11"/>
+      <c r="D77" s="10"/>
       <c r="E77" s="5"/>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="9"/>
-      <c r="D78" s="11"/>
+      <c r="D78" s="10"/>
       <c r="E78" s="5"/>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="9"/>
-      <c r="D79" s="11"/>
+      <c r="D79" s="10"/>
       <c r="E79" s="5"/>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="9"/>
-      <c r="D80" s="11"/>
+      <c r="D80" s="10"/>
       <c r="E80" s="5"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="9"/>
-      <c r="D81" s="11"/>
+      <c r="D81" s="10"/>
       <c r="E81" s="5"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="9"/>
-      <c r="D82" s="11"/>
+      <c r="D82" s="10"/>
       <c r="E82" s="5"/>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="9"/>
-      <c r="D83" s="11"/>
+      <c r="D83" s="10"/>
       <c r="E83" s="5"/>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="9"/>
-      <c r="D84" s="11"/>
+      <c r="D84" s="10"/>
       <c r="E84" s="5"/>
     </row>
     <row r="85" spans="1:5">

--- a/Question/Yelp-Alltime.xlsx
+++ b/Question/Yelp-Alltime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033075F0-6F52-4523-8773-00CB0A5EB847}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2144DFE-656E-44B7-ADD6-01A3FF7E22F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="345" yWindow="330" windowWidth="7500" windowHeight="6000" xr2:uid="{5DE44689-42C0-45F9-856A-1609A8CE5BB8}"/>
   </bookViews>
@@ -443,7 +443,89 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFBC37"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFBC37"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFBC37"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -600,20 +682,11 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFBC37"/>
       <color rgb="FF006666"/>
     </mruColors>
   </colors>
@@ -629,13 +702,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE89C17F-CDED-42D8-89DC-4CE6E8D85CD7}" name="Table1" displayName="Table1" ref="A1:D38" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE89C17F-CDED-42D8-89DC-4CE6E8D85CD7}" name="Table1" displayName="Table1" ref="A1:D38" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:D38" xr:uid="{4A270C05-BE87-489A-9695-6788BA0935CC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
+    <sortCondition sortBy="cellColor" ref="C1:C38" dxfId="1"/>
+  </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C477AEF0-FE12-4978-9DC3-A9D27032F7B1}" name="Number" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{01D60E7F-650B-4E40-A809-B211B1C783D1}" name="Name" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{FA895AE3-4D71-4612-9F9B-EE7D2A465511}" name="Difficulties" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{3185EA03-113A-47DC-8182-3BD7608067D3}" name="URL" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C477AEF0-FE12-4978-9DC3-A9D27032F7B1}" name="Number" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{01D60E7F-650B-4E40-A809-B211B1C783D1}" name="Name" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{FA895AE3-4D71-4612-9F9B-EE7D2A465511}" name="Difficulties" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{3185EA03-113A-47DC-8182-3BD7608067D3}" name="URL" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -940,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7BD6BDD-6E13-4CFA-9B09-61E19E22488E}">
   <dimension ref="A1:E414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -985,541 +1061,541 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3">
-        <v>564</v>
+        <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3">
-        <v>273</v>
+        <v>205</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3">
-        <v>332</v>
+        <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3">
-        <v>355</v>
+        <v>206</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3">
-        <v>56</v>
+        <v>349</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3">
-        <v>49</v>
+        <v>242</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3">
-        <v>692</v>
+        <v>443</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3">
-        <v>139</v>
+        <v>1436</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3">
-        <v>218</v>
+        <v>1455</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3">
-        <v>1126</v>
+        <v>355</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>26</v>
+      <c r="D13" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
-        <v>528</v>
+        <v>56</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
-        <v>253</v>
+        <v>49</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
-        <v>127</v>
+        <v>692</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
-        <v>1333</v>
+        <v>139</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
-        <v>3</v>
+        <v>347</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3">
-        <v>14</v>
+        <v>1126</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3">
-        <v>205</v>
+        <v>528</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3">
-        <v>126</v>
+        <v>253</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>41</v>
+        <v>9</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>43</v>
+        <v>9</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3">
-        <v>22</v>
+        <v>1333</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3">
-        <v>207</v>
+        <v>3</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3">
-        <v>192</v>
+        <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="16" t="s">
-        <v>49</v>
+      <c r="D25" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3">
-        <v>380</v>
+        <v>207</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>51</v>
+      <c r="D26" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3">
-        <v>784</v>
+        <v>192</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>53</v>
+      <c r="D27" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3">
-        <v>39</v>
+        <v>380</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>55</v>
+      <c r="D28" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3">
-        <v>239</v>
+        <v>784</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3">
-        <v>206</v>
+        <v>39</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3">
-        <v>349</v>
+        <v>394</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3">
-        <v>242</v>
+        <v>151</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3">
-        <v>394</v>
+        <v>564</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3">
-        <v>151</v>
+        <v>273</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3">
-        <v>381</v>
+        <v>218</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="12" t="s">
-        <v>69</v>
+      <c r="D35" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3">
-        <v>443</v>
+        <v>126</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>71</v>
+        <v>4</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3">
-        <v>1436</v>
+        <v>239</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3">
-        <v>1455</v>
+        <v>381</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>75</v>
+        <v>4</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="E38" s="5"/>
     </row>
@@ -2837,10 +2913,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A38 A65:A1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A38">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2851,6 +2927,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
